--- a/LightCones/3-StarLightConeIDs.xlsx
+++ b/LightCones/3-StarLightConeIDs.xlsx
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F6:F7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.375" defaultRowHeight="24.75" outlineLevelCol="3"/>
